--- a/results copy 4_.xlsx
+++ b/results copy 4_.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="4780" windowWidth="27320" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28020" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="results copy 4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'results copy 4'!$K$1:$K$368</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="85">
   <si>
     <t>File</t>
   </si>
@@ -247,15 +251,67 @@
   <si>
     <t>/home/ubuntu/models/ML924__012_62px_model400x50.ckpt</t>
   </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,16 +334,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -295,6 +368,15 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:B14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Light Wavelength" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K368"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13821,4 +13903,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B3:B14" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>